--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1215977.675699509</v>
+        <v>-1164796.65723139</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17440984.00909675</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484445</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10206053.26656749</v>
+        <v>10201807.04575761</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>281.2014191963606</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>113.4237369778834</v>
+        <v>5.013458320259134</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>329.9569773463018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>132.4276970601382</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>158.4518277554302</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>144.5697559790001</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>234.9515993410847</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1054,16 +1054,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>159.5828560759984</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>113.0140237298851</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1133,25 +1133,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>32.773896913958</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>299.527931589695</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1306,10 +1306,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>22.56919457453915</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1351,7 +1351,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>34.49177850702025</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1373,22 +1373,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772993</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>380.6938836854714</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>136.0564930766995</v>
+        <v>18.0567773522572</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655109</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>69.45405731752267</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1771,7 +1771,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>65.07405371603545</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1859,7 +1859,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112162</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2020,7 +2020,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2056,16 +2056,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>172.6623007436918</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>248.9284599389402</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>94.21878984361638</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U25" t="n">
-        <v>172.6623007436909</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2725,13 +2725,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>13.99728392830417</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>152.5168019860612</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C34" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D34" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E34" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G34" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432402</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934044</v>
+        <v>4.96793274293444</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>66.57964473925547</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="36">
@@ -3439,10 +3439,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277814</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432343</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934469</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3679,7 +3679,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432343</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934469</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3916,7 +3916,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432346</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>236.1765350202613</v>
+        <v>782.3765311903798</v>
       </c>
       <c r="C2" t="n">
-        <v>202.0744662440887</v>
+        <v>748.2744624142072</v>
       </c>
       <c r="D2" t="n">
-        <v>202.0744662440887</v>
+        <v>464.2326248421257</v>
       </c>
       <c r="E2" t="n">
-        <v>172.3401254427879</v>
+        <v>464.2326248421257</v>
       </c>
       <c r="F2" t="n">
-        <v>148.5130998923997</v>
+        <v>440.4055992917375</v>
       </c>
       <c r="G2" t="n">
-        <v>148.5130998923997</v>
+        <v>39.00776791500141</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4328,28 +4328,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>437.0247332457074</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>857.0776321906106</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>1277.130531135514</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>1697.183430080417</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4358,22 +4358,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W2" t="n">
-        <v>988.6088745483262</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="X2" t="n">
-        <v>569.4664111276369</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="Y2" t="n">
-        <v>236.1765350202613</v>
+        <v>1208.676101675288</v>
       </c>
     </row>
     <row r="3">
@@ -4422,10 +4422,10 @@
         <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.3833729168607</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="C4" t="n">
-        <v>199.8216614000857</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>120.5233537662982</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>540.5762527112014</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>960.6291516561047</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1380.298400881886</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1537.942061378414</v>
+        <v>1537.131078812306</v>
       </c>
       <c r="U4" t="n">
-        <v>1537.942061378414</v>
+        <v>1258.698078065411</v>
       </c>
       <c r="V4" t="n">
-        <v>1250.986553248845</v>
+        <v>971.7425699358416</v>
       </c>
       <c r="W4" t="n">
-        <v>978.9601488351361</v>
+        <v>699.7161655221332</v>
       </c>
       <c r="X4" t="n">
-        <v>733.5683941685486</v>
+        <v>454.3244108555456</v>
       </c>
       <c r="Y4" t="n">
-        <v>506.1487234826569</v>
+        <v>454.3244108555456</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>367.3910961563706</v>
+        <v>1781.11226233552</v>
       </c>
       <c r="C5" t="n">
-        <v>333.289027380198</v>
+        <v>1635.082205791075</v>
       </c>
       <c r="D5" t="n">
-        <v>301.4196465950466</v>
+        <v>1603.212825005924</v>
       </c>
       <c r="E5" t="n">
-        <v>271.6853057937458</v>
+        <v>1169.438080164219</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>741.5706505734267</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>340.1728191966906</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>51.04266463990685</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704685</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.8805627199648</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1112.375769149669</v>
       </c>
       <c r="L5" t="n">
-        <v>1107.976466382457</v>
+        <v>1112.375769149669</v>
       </c>
       <c r="M5" t="n">
-        <v>1107.976466382457</v>
+        <v>1189.145706210986</v>
       </c>
       <c r="N5" t="n">
-        <v>1107.976466382457</v>
+        <v>1189.145706210986</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1189.145706210986</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>1815.640912640691</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599286</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352342</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2447.641889536179</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2227.574662409218</v>
       </c>
       <c r="U5" t="n">
-        <v>1217.893900270473</v>
+        <v>2227.574662409218</v>
       </c>
       <c r="V5" t="n">
-        <v>1217.893900270473</v>
+        <v>2227.574662409218</v>
       </c>
       <c r="W5" t="n">
-        <v>1217.07884972191</v>
+        <v>1822.719207820251</v>
       </c>
       <c r="X5" t="n">
-        <v>1201.976790341625</v>
+        <v>1807.617148439966</v>
       </c>
       <c r="Y5" t="n">
-        <v>793.6906666412784</v>
+        <v>1803.371428780024</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583396</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.3411590949819</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415352</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.1304555684889</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.7466171846505</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.36152745083439</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704685</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.68954842750445</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.2478733937168</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>401.2478733937168</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.2478733937168</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.2478733937168</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.2478733937168</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>429.4587135897357</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.692858651516</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.23155552484</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.454736320002</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.587300558882</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381028</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>195.1384727187784</v>
+        <v>602.7101695725269</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>430.1484580557518</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>315.9928785306153</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>315.9928785306153</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.2858244923715</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.2858244923715</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.2858244923715</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704685</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.62587526704685</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.3843298381825</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>743.5942116061435</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1203.078078787057</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1645.336881944701</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2065.006131170483</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.513025140825</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352342</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2509.875942057714</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2350.634573355711</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2104.755126934166</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>1826.322126187271</v>
       </c>
       <c r="V7" t="n">
-        <v>1131.794921203953</v>
+        <v>1539.366618057702</v>
       </c>
       <c r="W7" t="n">
-        <v>859.7685167902448</v>
+        <v>1267.340213643993</v>
       </c>
       <c r="X7" t="n">
-        <v>614.3767621236573</v>
+        <v>1021.948458977406</v>
       </c>
       <c r="Y7" t="n">
-        <v>386.9570914377655</v>
+        <v>794.528788291514</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>548.3728793740404</v>
+        <v>1382.412671899186</v>
       </c>
       <c r="C8" t="n">
-        <v>119.7912051113087</v>
+        <v>1348.310603123013</v>
       </c>
       <c r="D8" t="n">
-        <v>87.92182432615731</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>58.18748352485655</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>267.8706684926505</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>2636.14082950513</v>
       </c>
       <c r="X8" t="n">
-        <v>1277.225916111165</v>
+        <v>2216.99836608444</v>
       </c>
       <c r="Y8" t="n">
-        <v>974.6724498589482</v>
+        <v>1808.712242384094</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>464.9019468393491</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C10" t="n">
-        <v>464.9019468393491</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D10" t="n">
-        <v>464.9019468393491</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="E10" t="n">
-        <v>464.9019468393491</v>
+        <v>558.3988860875784</v>
       </c>
       <c r="F10" t="n">
-        <v>288.1948928011053</v>
+        <v>381.6918320493346</v>
       </c>
       <c r="G10" t="n">
-        <v>122.603617826933</v>
+        <v>216.1005570751623</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>76.19838276553679</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1537.942061378414</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>1259.509060631519</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V10" t="n">
-        <v>972.5535525019498</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W10" t="n">
-        <v>937.7133721918283</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X10" t="n">
-        <v>692.3216175252408</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y10" t="n">
-        <v>464.9019468393491</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1771.379601183442</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C11" t="n">
-        <v>1333.237128366865</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D11" t="n">
-        <v>897.3273435413093</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>463.5525986996045</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>463.5525986996045</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>79.01332224963333</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>79.01332224963333</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>79.01332224963333</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>79.01332224963333</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>913.3636142078113</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L11" t="n">
-        <v>1598.067588850463</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M11" t="n">
-        <v>1598.067588850463</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N11" t="n">
-        <v>1598.067588850463</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O11" t="n">
-        <v>2575.857451689676</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P11" t="n">
-        <v>3404.167326523072</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q11" t="n">
-        <v>3950.666112481666</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R11" t="n">
-        <v>3950.666112481666</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3867.014238665503</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T11" t="n">
-        <v>3646.947011538542</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U11" t="n">
-        <v>3387.724708855559</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V11" t="n">
-        <v>3025.107758789385</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W11" t="n">
-        <v>3025.107758789385</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>2605.965295368696</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y11" t="n">
-        <v>2197.679171668349</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>585.1850672409262</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>478.7286060775684</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D12" t="n">
-        <v>383.6383172241217</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E12" t="n">
-        <v>289.5179025510754</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F12" t="n">
-        <v>206.134064167237</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G12" t="n">
-        <v>120.7489744334209</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>79.01332224963333</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>105.0769954100909</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>429.6353203763032</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1625.080305634103</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1742.253083728442</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1678.797646176825</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1548.619002507427</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1372.282455507395</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1173.164937569395</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>987.8421833025886</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>832.9747475414686</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>706.4889683206893</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1066.94016041414</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C13" t="n">
-        <v>894.3784488973648</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D13" t="n">
-        <v>728.5004560988875</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E13" t="n">
-        <v>558.7424523496247</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F13" t="n">
-        <v>382.035398311381</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G13" t="n">
-        <v>216.4441233372086</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H13" t="n">
-        <v>79.01332224963333</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>79.01332224963333</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>165.5930074143232</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>440.3514619854588</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>858.5613437534199</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1318.045210934333</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1760.304014091977</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2179.973263317759</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2527.480157288101</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2695.672932152433</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2695.672932152433</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2536.431563450429</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T13" t="n">
-        <v>2290.552117028884</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U13" t="n">
-        <v>2290.552117028884</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V13" t="n">
-        <v>2003.596608899315</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W13" t="n">
-        <v>1731.570204485606</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X13" t="n">
-        <v>1486.178449819019</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y13" t="n">
-        <v>1258.758779133127</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5285,43 +5285,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R14" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V14" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5334,16 +5334,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D15" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E15" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F15" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G15" t="n">
         <v>143.9964924545671</v>
@@ -5358,19 +5358,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1011.560997133398</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C16" t="n">
-        <v>838.9992856166232</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D16" t="n">
-        <v>673.1212928181459</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5452,34 +5452,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309244</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752031</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005137</v>
       </c>
       <c r="V16" t="n">
-        <v>1948.217445618573</v>
+        <v>1907.652494875567</v>
       </c>
       <c r="W16" t="n">
-        <v>1676.191041204865</v>
+        <v>1635.626090461859</v>
       </c>
       <c r="X16" t="n">
-        <v>1430.799286538277</v>
+        <v>1390.234335795271</v>
       </c>
       <c r="Y16" t="n">
-        <v>1203.379615852385</v>
+        <v>1162.814665109379</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5522,22 +5522,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
         <v>5029.390139722817</v>
@@ -5552,13 +5552,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5677,46 +5677,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>881.808861774567</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
         <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338906</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309248</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878952</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755404</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2117.975449367836</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1783.923745475924</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,7 +5759,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423627</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2117.975449367836</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2683.3639582443</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2683.3639582443</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1008.757289365886</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6835,16 +6835,16 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886291</v>
+        <v>910.3590448886289</v>
       </c>
       <c r="D34" t="n">
-        <v>760.880759503028</v>
+        <v>760.8807595030278</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666414</v>
+        <v>607.5224631666413</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412737</v>
+        <v>447.2151165412736</v>
       </c>
       <c r="G34" t="n">
         <v>298.0235489799775</v>
@@ -6871,16 +6871,16 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751064</v>
+        <v>2299.660900751065</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956766</v>
+        <v>2663.241147956767</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056458</v>
+        <v>2847.507276056459</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174707</v>
+        <v>2842.489162174706</v>
       </c>
       <c r="S34" t="n">
         <v>2699.647500885579</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>931.9169956339958</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1944.114658950744</v>
       </c>
       <c r="M35" t="n">
-        <v>3603.973621145286</v>
+        <v>1944.114658950744</v>
       </c>
       <c r="N35" t="n">
-        <v>3603.973621145286</v>
+        <v>3069.845642387191</v>
       </c>
       <c r="O35" t="n">
-        <v>4584.153287715592</v>
+        <v>4050.025308957498</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>603.7384486671107</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>497.2819875037529</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>402.1916986503062</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>308.0712839772599</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>224.6874455934215</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>1697.35102760301</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>1567.172383933611</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>1390.83583693358</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>1191.718318995579</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>1006.395564728773</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>851.5281289676531</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>725.0423497468738</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.521048992528</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886287</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030275</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666409</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412733</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799771</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H37" t="n">
-        <v>174.5210820832282</v>
+        <v>169.8269454882658</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J37" t="n">
-        <v>204.9138786708294</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K37" t="n">
-        <v>495.7456864773249</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L37" t="n">
-        <v>930.0289214806457</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M37" t="n">
-        <v>1405.586141896919</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N37" t="n">
-        <v>1863.918298289923</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751064</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956766</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056458</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174706</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S37" t="n">
-        <v>2699.647500885579</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T37" t="n">
-        <v>2470.16776187691</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542891</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826198</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W37" t="n">
-        <v>1681.951970825366</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571654</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y37" t="n">
-        <v>1241.939960298639</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E38" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
@@ -7172,43 +7172,43 @@
         <v>97.56670367581786</v>
       </c>
       <c r="J38" t="n">
-        <v>444.7825334645028</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>1279.132825422681</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245846</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079242</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037837</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
         <v>4878.335183790893</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750117</v>
       </c>
       <c r="W38" t="n">
         <v>3629.919912574026</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936667</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080656</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E40" t="n">
-        <v>602.828326571679</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463113</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850151</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882658</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
         <v>97.56670367581786</v>
@@ -7348,13 +7348,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7363,7 +7363,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231236</v>
@@ -7372,7 +7372,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
         <v>1237.245823703677</v>
@@ -7385,58 +7385,58 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197248</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581717</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
-        <v>444.7825334645028</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>1279.132825422681</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245846</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079242</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037837</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T41" t="n">
         <v>4607.41549767352</v>
@@ -7451,10 +7451,10 @@
         <v>3629.919912574025</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="42">
@@ -7482,13 +7482,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K42" t="n">
         <v>1102.894748428211</v>
@@ -7546,25 +7546,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882658</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7597,10 +7597,10 @@
         <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V43" t="n">
         <v>1932.884531231236</v>
@@ -7609,7 +7609,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y43" t="n">
         <v>1237.245823703677</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206709</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390329</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.7629969615</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835848</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
@@ -7670,28 +7670,28 @@
         <v>4797.21997670207</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
         <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403412</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750115</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574024</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566211</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.29074027874</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="45">
@@ -7719,13 +7719,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
         <v>1102.894748428211</v>
@@ -7801,7 +7801,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7810,31 +7810,31 @@
         <v>491.0515498823631</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856844</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O46" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U46" t="n">
         <v>2203.44033194793</v>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O2" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P3" t="n">
-        <v>424.2958575201043</v>
-      </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,16 +8213,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380855</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>77.54539097102702</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380856</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>28.49579817779687</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>632.8234408380856</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>119.9805436479978</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>691.6201764067191</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>987.6665281204166</v>
+        <v>756.3484258820577</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158828</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10583,25 +10583,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>1022.42188213813</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>534.2310361852406</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>350.723060392611</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>350.723060392611</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497184</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>150.3492677809393</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>74.2462851170413</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>16.68996937749733</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2.446659489829699</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,13 +23464,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>120.4463752142746</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>219.0118993322384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-9.198091796324334e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,16 +23944,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>102.9863699957339</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>35.15749310933367</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>69.71657238081423</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U25" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>143.6516710866791</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37.383630545736</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>6.110667527536862e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>5.826450433232822e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>827581.7129633926</v>
+        <v>679464.7223537018</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>896907.3710098764</v>
+        <v>901184.4191874739</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>896907.3710098764</v>
+        <v>901895.9718329433</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>743496.2433496091</v>
+        <v>896192.7601860511</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>896192.7601860516</v>
+        <v>896192.7601860513</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>896192.7601860515</v>
+        <v>896192.7601860516</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>911520.8241785942</v>
+        <v>910596.1266849078</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49413.17695592062</v>
+        <v>40436.3896462424</v>
       </c>
       <c r="C2" t="n">
         <v>53614.73198904085</v>
@@ -26320,40 +26320,40 @@
         <v>53614.73198904085</v>
       </c>
       <c r="E2" t="n">
-        <v>43708.97110405702</v>
+        <v>52685.75841373523</v>
       </c>
       <c r="F2" t="n">
+        <v>52685.75841373523</v>
+      </c>
+      <c r="G2" t="n">
+        <v>52685.75841373525</v>
+      </c>
+      <c r="H2" t="n">
         <v>52685.75841373524</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>52685.75841373524</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>52685.75841373523</v>
       </c>
-      <c r="I2" t="n">
-        <v>52685.75841373523</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>52685.75841373524</v>
-      </c>
-      <c r="K2" t="n">
-        <v>52685.75841373523</v>
       </c>
       <c r="L2" t="n">
         <v>53614.73198904088</v>
       </c>
       <c r="M2" t="n">
-        <v>53614.73198904088</v>
+        <v>53614.73198904083</v>
       </c>
       <c r="N2" t="n">
         <v>53614.73198904086</v>
       </c>
       <c r="O2" t="n">
-        <v>53614.73198904085</v>
+        <v>53614.73198904082</v>
       </c>
       <c r="P2" t="n">
-        <v>53614.73198904085</v>
+        <v>53614.73198904086</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246239</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106405</v>
       </c>
       <c r="E3" t="n">
-        <v>168210.0880865</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
-        <v>83262.72935658701</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338222</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.5682709979</v>
+        <v>21768.7419614351</v>
       </c>
       <c r="M3" t="n">
-        <v>140394.2245962802</v>
+        <v>137577.7007378519</v>
       </c>
       <c r="N3" t="n">
-        <v>56802.80065713869</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157451.2936695341</v>
+        <v>106214.747262108</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>137985.3773911517</v>
       </c>
       <c r="D4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>22967.16673664867</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="F4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020267</v>
       </c>
       <c r="G4" t="n">
         <v>27684.07875020268</v>
@@ -26448,7 +26448,7 @@
         <v>33026.43656683595</v>
       </c>
       <c r="M4" t="n">
-        <v>33026.43656683595</v>
+        <v>42419.67665353606</v>
       </c>
       <c r="N4" t="n">
         <v>42419.67665353612</v>
@@ -26470,22 +26470,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.2652029556</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60050.12490972133</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
-        <v>79083.15853826067</v>
+        <v>75515.61472608973</v>
       </c>
       <c r="N5" t="n">
         <v>75515.61472608973</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-309654.2055105457</v>
+        <v>-267723.9049713679</v>
       </c>
       <c r="C6" t="n">
-        <v>-187242.4426086436</v>
+        <v>-223843.0599975288</v>
       </c>
       <c r="D6" t="n">
-        <v>-187242.4426086436</v>
+        <v>-162131.3960058008</v>
       </c>
       <c r="E6" t="n">
-        <v>-207518.408628813</v>
+        <v>-235094.8925026922</v>
       </c>
       <c r="F6" t="n">
-        <v>-135979.2882988469</v>
+        <v>-52739.78328164257</v>
       </c>
       <c r="G6" t="n">
-        <v>-52716.55894225994</v>
+        <v>-52739.78328164272</v>
       </c>
       <c r="H6" t="n">
-        <v>-52716.55894225994</v>
+        <v>-52739.7832816426</v>
       </c>
       <c r="I6" t="n">
-        <v>-52716.55894225997</v>
+        <v>-52739.7832816426</v>
       </c>
       <c r="J6" t="n">
-        <v>-163731.0242872501</v>
+        <v>-163754.2486266328</v>
       </c>
       <c r="K6" t="n">
-        <v>-52716.55894225997</v>
+        <v>-106408.1103450248</v>
       </c>
       <c r="L6" t="n">
-        <v>-71483.43138705363</v>
+        <v>-80263.60507749085</v>
       </c>
       <c r="M6" t="n">
-        <v>-198889.087712336</v>
+        <v>-201898.2601284369</v>
       </c>
       <c r="N6" t="n">
-        <v>-121123.3600477237</v>
+        <v>-64320.55939058499</v>
       </c>
       <c r="O6" t="n">
         <v>-64320.559390585</v>
       </c>
       <c r="P6" t="n">
-        <v>-64320.55939058497</v>
+        <v>-64320.55939058496</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M2" t="n">
         <v>16.23571033874737</v>
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380856</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>987.6665281204166</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26820,7 +26820,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384745</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="N4" t="n">
         <v>1219.583795947723</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179813</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977128</v>
       </c>
       <c r="E4" t="n">
-        <v>563.3706706003122</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="F4" t="n">
-        <v>290.5939752643285</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179813</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977128</v>
       </c>
       <c r="M4" t="n">
-        <v>563.3706706003122</v>
+        <v>552.0685893398659</v>
       </c>
       <c r="N4" t="n">
-        <v>231.9172678273065</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179813</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977128</v>
       </c>
       <c r="M4" t="n">
-        <v>563.3706706003122</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
-        <v>290.5939752643285</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8151160333325</v>
+        <v>281.2253946909568</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57.47273547165906</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -27552,10 +27552,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>84.96882420189905</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>289.1912921094108</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>188.6371559537997</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>11.25323832560895</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>51.20518914060742</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -27792,7 +27792,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>50.04145816404336</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27913,13 +27913,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>104.6753308736481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>65.20415515853226</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>234.8143618625511</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-5.448550654941484e-13</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>16.23571033874589</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="36">
@@ -30882,7 +30882,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874771</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M46" t="n">
         <v>16.23571033874737</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O2" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P3" t="n">
-        <v>424.2958575201043</v>
-      </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,16 +34933,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380855</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>77.54539097102702</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380856</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>28.49579817779687</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>632.8234408380856</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>119.9805436479978</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>691.6201764067191</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>987.6665281204166</v>
+        <v>756.3484258820577</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158828</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35653,10 +35653,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35820,7 +35820,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165038</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35890,7 +35890,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080424</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K34" t="n">
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M34" t="n">
         <v>480.360828703306</v>
@@ -37239,13 +37239,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>1022.42188213813</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>534.2310361852406</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M37" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N37" t="n">
         <v>462.9617741343479</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>350.723060392611</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -37558,13 +37558,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
         <v>186.127402120901</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>350.723060392611</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -37795,13 +37795,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497184</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38178,16 +38178,16 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467892</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M46" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N46" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
